--- a/8_code/ai-backend/data/test_sets/order-status-check-test-set.xlsx
+++ b/8_code/ai-backend/data/test_sets/order-status-check-test-set.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What is the status of order number 1845?</t>
+          <t>What is the status of order number 1597?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 62, 'ProductName': 'apple iphone 7 11.9 cm 4.7 32 gb 12 mp ios 10 black', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1845, 'CustomerID': 62, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 43558, 'ProductName': 'bosch kir21vf30g serie 4 built in single door fridges 88cm height white', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 1597, 'CustomerID': 2244, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-14 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Can I get an update on order 1337?</t>
+          <t>Can I get an update on order 1728?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 25034, 'ProductName': 'swan sm22090copn 20l digital microwave copper', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 1337, 'CustomerID': 760, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-03 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 16687, 'ProductName': 'hp intel xeon quad core e5506 2.13ghz fio kit 2.13ghz 4mb l2', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 1728, 'CustomerID': 2421, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-09-30 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tell me the current status of my order, 3344.</t>
+          <t>What's the latest on my order, 3421?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 39866, 'ProductName': 'fisher paykel rx611dux1 side by side fridge freezer', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 3344, 'CustomerID': 2160, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-20 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 22065, 'ProductName': 'sony dsc rx0 1.0 type sensor ultra compact camera with waterproof and shockproof design black', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 3421, 'CustomerID': 1607, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-27 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Order 1841 status?</t>
+          <t>Could you check the status of order 3117 for me, please?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 44439, 'ProductName': 'fridgemaster mbul60133 59cm wide integrated under counter fridge white', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 1841, 'CustomerID': 397, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-14 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 29707, 'ProductName': 'bosch exclusiv made in germany supersilence geschirrsp ler 45 cm integrierbar edelstahl spi66ts00d', 'Category': 'Dishwashers', 'Category ID': 2619, 'OrderID': 3117, 'CustomerID': 880, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-12 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Has order 1963 shipped yet?</t>
+          <t>Is there any information available about order number 1479?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 45148, 'ProductName': 'amica bc2763 177x54cm 298l in column integrated fridge', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 1963, 'CustomerID': 880, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-04 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 26272, 'ProductName': 'de longhi standard microwave p80d20 stainless steel', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 1479, 'CustomerID': 1353, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-09 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Is there any information on order number 2381?</t>
+          <t>What is the status of order number 2431?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 15339, 'ProductName': 'intel xeon e5 1620v2 3.7 ghz 4 cores 8 threads 10 mb cache lga2011 socket oem', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2381, 'CustomerID': 1375, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-07 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 2040, 'ProductName': 'xiaomi redmi 6a 32gb lte black', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1694, 'CustomerID': 304, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-13 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What's happening with my order 1276?</t>
+          <t>Can I get an update on order 2179?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 23935, 'ProductName': 'sharp r372wm solo 25 litre 900w microwave oven white', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 1276, 'CustomerID': 1016, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-05 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 36702, 'ProductName': 'hotpoint hf1801efaa 54cm wide frost free integrated upright in column freezer white', 'Category': 'Freezers', 'Category ID': 2621, 'OrderID': 1417, 'CustomerID': 1958, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-09-29 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Check status of order 1250.</t>
+          <t>What's the latest on my order, 2681?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 23398, 'ProductName': 'powershot sx420 is bridge camera 20 mp 1/2.3 ccd black digital camera', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 1250, 'CustomerID': 2424, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-23 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 41945, 'ProductName': 'bosch einbau k hl /gefrier kombination smartcool flachscharnier technik profi t rd mpfung kis77ad40 eek a', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 1326, 'CustomerID': 2427, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-27 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What is the status of order number 1902?</t>
+          <t>Could you check the status of order 2130 for me, please?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 3819, 'ProductName': 'lg gw620 intouch max mobile phone', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1955, 'CustomerID': 178, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-27 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 3359, 'ProductName': 'energizer energy 100 sim mobile phone double sim bluetooth 2g ip54 black', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1202, 'CustomerID': 142, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-06 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Can I get an update on order 1194?</t>
+          <t>Is there any information available about order number 2400?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 16977, 'ProductName': 'intel core i5 4430 3.00ghz quad core haswell socket 1150 cpu 6mb cache retail boxed processor', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 3411, 'CustomerID': 878, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-10 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 15315, 'ProductName': 'intel core i3 3250 3.5 ghz 2 cores 4 threads 3 mb cache lga1155 socket oem', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2194, 'CustomerID': 334, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-06 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
